--- a/Assignment-1a/a2_table.xlsx
+++ b/Assignment-1a/a2_table.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tommy/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tommy/Desktop/studyInMassey/158_738Implementation and Management of Systems Security/Assignment-1a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16322589-A0B4-A249-83AE-E248791468B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259F126A-E18E-B34D-BACA-CC59D1C49C2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15720" yWindow="460" windowWidth="35440" windowHeight="19160" xr2:uid="{EC4FEE2C-2FFE-0B47-B4F1-F54C8D0F51BE}"/>
+    <workbookView xWindow="36560" yWindow="460" windowWidth="24320" windowHeight="19160" xr2:uid="{EC4FEE2C-2FFE-0B47-B4F1-F54C8D0F51BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="OLE_LINK13" localSheetId="0">Sheet2!$A$13</definedName>
+    <definedName name="OLE_LINK15" localSheetId="0">Sheet2!$A$12</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>Date (dd/mm/yy）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +174,103 @@
   </si>
   <si>
     <t>A remote code execution vulnerability exists in Microsoft Excel software when the software fails to properly handle objects in memory, aka 'Microsoft Excel Remote Code Execution Vulnerability'. This CVE ID is unique from CVE-2019-1110.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81dc9bdb52d04dc20036dbd8313ed055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">md5 </t>
+  </si>
+  <si>
+    <t>e91e6348157868de9dd8b25c81aebfb9</t>
+  </si>
+  <si>
+    <t>7110eda4d09e062aa5e4a390b0a572ac0d2c0220</t>
+  </si>
+  <si>
+    <t>c84c50d5a767a23bda0ea5ca348fed54c6db9aab</t>
+  </si>
+  <si>
+    <t>md6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shal </t>
+  </si>
+  <si>
+    <t>security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">unknown </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b273b0604664ef525ef83046d1b79659</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>massey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1c34523403b86c6d23730a71c3b58720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SHA-1	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1c06368eae0b0d8664c0ce6102f697dfa9961ce5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Original text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10628dfb1306f3da181885e4691029e4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>94674db52ffc47736b4f47c138606668a76602e8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewZealand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implementation&amp;Management_SystemsSecurity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b009e808a77e7b289b667c2547c068c5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1b329efa1aad14ce429a02144401b34dc9c74d09</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -247,7 +348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -268,6 +369,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,17 +687,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328AB7A2-9A1F-9D46-AAC9-688E0DE4FB57}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:J6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C21" sqref="A18:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11"/>
   <cols>
-    <col min="1" max="1" width="8" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14" style="6" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="4.33203125" style="2" customWidth="1"/>
@@ -796,6 +900,117 @@
         <v>14</v>
       </c>
     </row>
+    <row r="10" spans="1:10" ht="12">
+      <c r="A10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="12">
+      <c r="A18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24">
+      <c r="A19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="24">
+      <c r="A20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24">
+      <c r="A21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
